--- a/Bin/Server/DataConfig/Excel/Talent.xlsx
+++ b/Bin/Server/DataConfig/Excel/Talent.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,8 +30,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -184,8 +184,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -196,6 +196,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -360,7 +365,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -380,7 +385,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -388,6 +393,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -721,22 +729,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -918,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1057,9 +1065,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 D6 E6:H6 B7 C7:H7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 D6 E6:H6 B7 C7:H7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
